--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.48399220766162</v>
+        <v>3.140455666666667</v>
       </c>
       <c r="H2">
-        <v>1.48399220766162</v>
+        <v>9.421367</v>
       </c>
       <c r="I2">
-        <v>0.002400756242041706</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="J2">
-        <v>0.002400756242041706</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N2">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q2">
-        <v>127.0306336505924</v>
+        <v>2.087173006530556</v>
       </c>
       <c r="R2">
-        <v>127.0306336505924</v>
+        <v>18.784557058775</v>
       </c>
       <c r="S2">
-        <v>0.001718948809066001</v>
+        <v>2.778340393425487E-05</v>
       </c>
       <c r="T2">
-        <v>0.001718948809066001</v>
+        <v>2.778340393425487E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.48399220766162</v>
+        <v>3.140455666666667</v>
       </c>
       <c r="H3">
-        <v>1.48399220766162</v>
+        <v>9.421367</v>
       </c>
       <c r="I3">
-        <v>0.002400756242041706</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="J3">
-        <v>0.002400756242041706</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N3">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q3">
-        <v>50.38569489782986</v>
+        <v>269.5328234182693</v>
       </c>
       <c r="R3">
-        <v>50.38569489782986</v>
+        <v>2425.795410764424</v>
       </c>
       <c r="S3">
-        <v>0.0006818074329757044</v>
+        <v>0.003587886238054572</v>
       </c>
       <c r="T3">
-        <v>0.0006818074329757044</v>
+        <v>0.003587886238054572</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>601.11283994865</v>
+        <v>3.140455666666667</v>
       </c>
       <c r="H4">
-        <v>601.11283994865</v>
+        <v>9.421367</v>
       </c>
       <c r="I4">
-        <v>0.9724615771076878</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="J4">
-        <v>0.9724615771076878</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q4">
-        <v>51455.62393114378</v>
+        <v>0.02925543817211111</v>
       </c>
       <c r="R4">
-        <v>51455.62393114378</v>
+        <v>0.263298943549</v>
       </c>
       <c r="S4">
-        <v>0.6962854622883726</v>
+        <v>3.894337716452651E-07</v>
       </c>
       <c r="T4">
-        <v>0.6962854622883726</v>
+        <v>3.894337716452652E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>601.11283994865</v>
+        <v>3.140455666666667</v>
       </c>
       <c r="H5">
-        <v>601.11283994865</v>
+        <v>9.421367</v>
       </c>
       <c r="I5">
-        <v>0.9724615771076878</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="J5">
-        <v>0.9724615771076878</v>
+        <v>0.005037281036089241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N5">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q5">
-        <v>20409.46576164696</v>
+        <v>106.7664753716291</v>
       </c>
       <c r="R5">
-        <v>20409.46576164696</v>
+        <v>960.898278344662</v>
       </c>
       <c r="S5">
-        <v>0.2761761148193151</v>
+        <v>0.001421221960328769</v>
       </c>
       <c r="T5">
-        <v>0.2761761148193151</v>
+        <v>0.001421221960328769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.344702424102377</v>
+        <v>601.5827839999999</v>
       </c>
       <c r="H6">
-        <v>0.344702424102377</v>
+        <v>1804.748352</v>
       </c>
       <c r="I6">
-        <v>0.0005576488151610201</v>
+        <v>0.9649368980576715</v>
       </c>
       <c r="J6">
-        <v>0.0005576488151610201</v>
+        <v>0.9649368980576714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N6">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q6">
-        <v>29.50673671232961</v>
+        <v>399.8169314362667</v>
       </c>
       <c r="R6">
-        <v>29.50673671232961</v>
+        <v>3598.3523829264</v>
       </c>
       <c r="S6">
-        <v>0.0003992782565392368</v>
+        <v>0.005322163170514087</v>
       </c>
       <c r="T6">
-        <v>0.0003992782565392368</v>
+        <v>0.005322163170514086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.344702424102377</v>
+        <v>601.5827839999999</v>
       </c>
       <c r="H7">
-        <v>0.344702424102377</v>
+        <v>1804.748352</v>
       </c>
       <c r="I7">
-        <v>0.0005576488151610201</v>
+        <v>0.9649368980576715</v>
       </c>
       <c r="J7">
-        <v>0.0005576488151610201</v>
+        <v>0.9649368980576714</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N7">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P7">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q7">
-        <v>11.70361345679316</v>
+        <v>51631.45845757081</v>
       </c>
       <c r="R7">
-        <v>11.70361345679316</v>
+        <v>464683.1261181373</v>
       </c>
       <c r="S7">
-        <v>0.0001583705586217833</v>
+        <v>0.6872921705833632</v>
       </c>
       <c r="T7">
-        <v>0.0001583705586217833</v>
+        <v>0.6872921705833631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.1937769827332</v>
+        <v>601.5827839999999</v>
       </c>
       <c r="H8">
-        <v>15.1937769827332</v>
+        <v>1804.748352</v>
       </c>
       <c r="I8">
-        <v>0.02458001783510962</v>
+        <v>0.9649368980576715</v>
       </c>
       <c r="J8">
-        <v>0.02458001783510962</v>
+        <v>0.9649368980576714</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P8">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q8">
-        <v>1300.596531233592</v>
+        <v>5.604144688149333</v>
       </c>
       <c r="R8">
-        <v>1300.596531233592</v>
+        <v>50.437302193344</v>
       </c>
       <c r="S8">
-        <v>0.01759936791773163</v>
+        <v>7.459957324557428E-05</v>
       </c>
       <c r="T8">
-        <v>0.01759936791773163</v>
+        <v>7.45995732455743E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.1937769827332</v>
+        <v>601.5827839999999</v>
       </c>
       <c r="H9">
-        <v>15.1937769827332</v>
+        <v>1804.748352</v>
       </c>
       <c r="I9">
-        <v>0.02458001783510962</v>
+        <v>0.9649368980576715</v>
       </c>
       <c r="J9">
-        <v>0.02458001783510962</v>
+        <v>0.9649368980576714</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N9">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O9">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P9">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q9">
-        <v>515.8713148527701</v>
+        <v>20452.08731129954</v>
       </c>
       <c r="R9">
-        <v>515.8713148527701</v>
+        <v>184068.7858016959</v>
       </c>
       <c r="S9">
-        <v>0.006980649917377987</v>
+        <v>0.2722479647305486</v>
       </c>
       <c r="T9">
-        <v>0.006980649917377987</v>
+        <v>0.2722479647305486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9353736666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.806121</v>
+      </c>
+      <c r="I10">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="J10">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.993825</v>
+      </c>
+      <c r="O10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q10">
+        <v>0.6216571336472222</v>
+      </c>
+      <c r="R10">
+        <v>5.594914202825</v>
+      </c>
+      <c r="S10">
+        <v>8.275189070906082E-06</v>
+      </c>
+      <c r="T10">
+        <v>8.275189070906082E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9353736666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.806121</v>
+      </c>
+      <c r="I11">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="J11">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>85.826024</v>
+      </c>
+      <c r="N11">
+        <v>257.478072</v>
+      </c>
+      <c r="O11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q11">
+        <v>80.27940276430134</v>
+      </c>
+      <c r="R11">
+        <v>722.514624878712</v>
+      </c>
+      <c r="S11">
+        <v>0.00106863928750636</v>
+      </c>
+      <c r="T11">
+        <v>0.00106863928750636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9353736666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.806121</v>
+      </c>
+      <c r="I12">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="J12">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.027947</v>
+      </c>
+      <c r="O12">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P12">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.008713629287444444</v>
+      </c>
+      <c r="R12">
+        <v>0.07842266358700001</v>
+      </c>
+      <c r="S12">
+        <v>1.159914781711596E-07</v>
+      </c>
+      <c r="T12">
+        <v>1.159914781711596E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9353736666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.806121</v>
+      </c>
+      <c r="I13">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="J13">
+        <v>0.001500336426579262</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N13">
+        <v>101.991386</v>
+      </c>
+      <c r="O13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q13">
+        <v>31.80001889707844</v>
+      </c>
+      <c r="R13">
+        <v>286.200170073706</v>
+      </c>
+      <c r="S13">
+        <v>0.0004233059585238241</v>
+      </c>
+      <c r="T13">
+        <v>0.0004233059585238241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.78400266666667</v>
+      </c>
+      <c r="H14">
+        <v>53.352008</v>
+      </c>
+      <c r="I14">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="J14">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.993825</v>
+      </c>
+      <c r="O14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q14">
+        <v>11.81939637228889</v>
+      </c>
+      <c r="R14">
+        <v>106.3745673506</v>
+      </c>
+      <c r="S14">
+        <v>0.0001573338974023194</v>
+      </c>
+      <c r="T14">
+        <v>0.0001573338974023194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.78400266666667</v>
+      </c>
+      <c r="H15">
+        <v>53.352008</v>
+      </c>
+      <c r="I15">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="J15">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.826024</v>
+      </c>
+      <c r="N15">
+        <v>257.478072</v>
+      </c>
+      <c r="O15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q15">
+        <v>1526.330239685398</v>
+      </c>
+      <c r="R15">
+        <v>13736.97215716858</v>
+      </c>
+      <c r="S15">
+        <v>0.02031774532037416</v>
+      </c>
+      <c r="T15">
+        <v>0.02031774532037415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.78400266666667</v>
+      </c>
+      <c r="H16">
+        <v>53.352008</v>
+      </c>
+      <c r="I16">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="J16">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.027947</v>
+      </c>
+      <c r="O16">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P16">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.1656698408417778</v>
+      </c>
+      <c r="R16">
+        <v>1.491028567576</v>
+      </c>
+      <c r="S16">
+        <v>2.205314122705162E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.205314122705162E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.78400266666667</v>
+      </c>
+      <c r="H17">
+        <v>53.352008</v>
+      </c>
+      <c r="I17">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="J17">
+        <v>0.02852548447966007</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N17">
+        <v>101.991386</v>
+      </c>
+      <c r="O17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q17">
+        <v>604.6050268670099</v>
+      </c>
+      <c r="R17">
+        <v>5441.445241803089</v>
+      </c>
+      <c r="S17">
+        <v>0.00804819994776089</v>
+      </c>
+      <c r="T17">
+        <v>0.008048199947760888</v>
       </c>
     </row>
   </sheetData>
